--- a/biology/Zoologie/René_d'Abadie/René_d'Abadie.xlsx
+++ b/biology/Zoologie/René_d'Abadie/René_d'Abadie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_d%27Abadie</t>
+          <t>René_d'Abadie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le marquis René d'Abadie (10 mars 1895 à Magnac-Laval - 15 juillet 1971 à Magnac-Laval[1]) est un ornithologue français. Docteur ès sciences naturelles, diplômé de l'université de Cambridge, il a accumulé durant sa vie une collection variée d'histoire naturelle qu'il légua à sa mort au muséum d'histoire naturelle de Nantes. Depuis 1988, cette collection y est exposée sous la forme d'une fidèle reconstitution de son cabinet de travail[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marquis René d'Abadie (10 mars 1895 à Magnac-Laval - 15 juillet 1971 à Magnac-Laval) est un ornithologue français. Docteur ès sciences naturelles, diplômé de l'université de Cambridge, il a accumulé durant sa vie une collection variée d'histoire naturelle qu'il légua à sa mort au muséum d'histoire naturelle de Nantes. Depuis 1988, cette collection y est exposée sous la forme d'une fidèle reconstitution de son cabinet de travail,.
 Il est aussi fondateur de la Société française d’ornithologie.
 </t>
         </is>
